--- a/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
+++ b/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
@@ -2022,7 +2022,9 @@
       <c r="GO2" t="n">
         <v>0</v>
       </c>
-      <c r="GP2" t="inlineStr"/>
+      <c r="GP2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2626,7 +2628,9 @@
       <c r="GO3" t="n">
         <v>0</v>
       </c>
-      <c r="GP3" t="inlineStr"/>
+      <c r="GP3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3230,7 +3234,9 @@
       <c r="GO4" t="n">
         <v>189.62</v>
       </c>
-      <c r="GP4" t="inlineStr"/>
+      <c r="GP4" t="n">
+        <v>161.937</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3618,7 +3624,9 @@
       <c r="GO5" t="n">
         <v>95.648</v>
       </c>
-      <c r="GP5" t="inlineStr"/>
+      <c r="GP5" t="n">
+        <v>73.46899999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4222,7 +4230,9 @@
       <c r="GO6" t="n">
         <v>0</v>
       </c>
-      <c r="GP6" t="inlineStr"/>
+      <c r="GP6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4826,7 +4836,9 @@
       <c r="GO7" t="n">
         <v>326.971</v>
       </c>
-      <c r="GP7" t="inlineStr"/>
+      <c r="GP7" t="n">
+        <v>324.412</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5430,7 +5442,9 @@
       <c r="GO8" t="n">
         <v>324.412</v>
       </c>
-      <c r="GP8" t="inlineStr"/>
+      <c r="GP8" t="n">
+        <v>274.676</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6034,7 +6048,9 @@
       <c r="GO9" t="n">
         <v>2.559</v>
       </c>
-      <c r="GP9" t="inlineStr"/>
+      <c r="GP9" t="n">
+        <v>49.735</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6638,7 +6654,9 @@
       <c r="GO10" t="n">
         <v>192.18</v>
       </c>
-      <c r="GP10" t="inlineStr"/>
+      <c r="GP10" t="n">
+        <v>211.672</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7026,7 +7044,9 @@
       <c r="GO11" t="n">
         <v>192.843</v>
       </c>
-      <c r="GP11" t="inlineStr"/>
+      <c r="GP11" t="n">
+        <v>208.935</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7630,7 +7650,9 @@
       <c r="GO12" t="n">
         <v>0</v>
       </c>
-      <c r="GP12" t="inlineStr"/>
+      <c r="GP12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8234,7 +8256,9 @@
       <c r="GO13" t="n">
         <v>145.502</v>
       </c>
-      <c r="GP13" t="inlineStr"/>
+      <c r="GP13" t="n">
+        <v>145.945</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -8838,7 +8862,9 @@
       <c r="GO14" t="n">
         <v>46.34</v>
       </c>
-      <c r="GP14" t="inlineStr"/>
+      <c r="GP14" t="n">
+        <v>61.991</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -9226,7 +9252,9 @@
       <c r="GO15" t="n">
         <v>46.34</v>
       </c>
-      <c r="GP15" t="inlineStr"/>
+      <c r="GP15" t="n">
+        <v>44.991</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -9830,7 +9858,9 @@
       <c r="GO16" t="n">
         <v>1</v>
       </c>
-      <c r="GP16" t="inlineStr"/>
+      <c r="GP16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -10218,7 +10248,9 @@
       <c r="GO17" t="n">
         <v>-0.663</v>
       </c>
-      <c r="GP17" t="inlineStr"/>
+      <c r="GP17" t="n">
+        <v>2.737</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -10822,7 +10854,9 @@
       <c r="GO18" t="n">
         <v>0</v>
       </c>
-      <c r="GP18" t="inlineStr"/>
+      <c r="GP18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -11426,7 +11460,9 @@
       <c r="GO19" t="n">
         <v>7.246</v>
       </c>
-      <c r="GP19" t="inlineStr"/>
+      <c r="GP19" t="n">
+        <v>5.168</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -12030,7 +12066,9 @@
       <c r="GO20" t="n">
         <v>0</v>
       </c>
-      <c r="GP20" t="inlineStr"/>
+      <c r="GP20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -12634,7 +12672,9 @@
       <c r="GO21" t="n">
         <v>0</v>
       </c>
-      <c r="GP21" t="inlineStr"/>
+      <c r="GP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -13238,7 +13278,9 @@
       <c r="GO22" t="n">
         <v>0</v>
       </c>
-      <c r="GP22" t="inlineStr"/>
+      <c r="GP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -13842,7 +13884,9 @@
       <c r="GO23" t="n">
         <v>0</v>
       </c>
-      <c r="GP23" t="inlineStr"/>
+      <c r="GP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -14446,7 +14490,9 @@
       <c r="GO24" t="n">
         <v>7.246</v>
       </c>
-      <c r="GP24" t="inlineStr"/>
+      <c r="GP24" t="n">
+        <v>5.168</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -15050,7 +15096,9 @@
       <c r="GO25" t="n">
         <v>0</v>
       </c>
-      <c r="GP25" t="inlineStr"/>
+      <c r="GP25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -15654,7 +15702,9 @@
       <c r="GO26" t="n">
         <v>107.688</v>
       </c>
-      <c r="GP26" t="inlineStr"/>
+      <c r="GP26" t="n">
+        <v>110.326</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -16258,7 +16308,9 @@
       <c r="GO27" t="n">
         <v>102.383</v>
       </c>
-      <c r="GP27" t="inlineStr"/>
+      <c r="GP27" t="n">
+        <v>86.093</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -16646,7 +16698,9 @@
       <c r="GO28" t="n">
         <v>0</v>
       </c>
-      <c r="GP28" t="inlineStr"/>
+      <c r="GP28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -17250,7 +17304,9 @@
       <c r="GO29" t="n">
         <v>0</v>
       </c>
-      <c r="GP29" t="inlineStr"/>
+      <c r="GP29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -17854,7 +17910,9 @@
       <c r="GO30" t="n">
         <v>60.629</v>
       </c>
-      <c r="GP30" t="inlineStr"/>
+      <c r="GP30" t="n">
+        <v>55.188</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -18458,7 +18516,9 @@
       <c r="GO31" t="n">
         <v>55.188</v>
       </c>
-      <c r="GP31" t="inlineStr"/>
+      <c r="GP31" t="n">
+        <v>45.457</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -19062,7 +19122,9 @@
       <c r="GO32" t="n">
         <v>5.441</v>
       </c>
-      <c r="GP32" t="inlineStr"/>
+      <c r="GP32" t="n">
+        <v>9.731</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -19666,7 +19728,9 @@
       <c r="GO33" t="n">
         <v>215.512</v>
       </c>
-      <c r="GP33" t="inlineStr"/>
+      <c r="GP33" t="n">
+        <v>206.149</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -20270,7 +20334,9 @@
       <c r="GO34" t="n">
         <v>182.112</v>
       </c>
-      <c r="GP34" t="inlineStr"/>
+      <c r="GP34" t="n">
+        <v>192.368</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -20874,7 +20940,9 @@
       <c r="GO35" t="n">
         <v>0</v>
       </c>
-      <c r="GP35" t="inlineStr"/>
+      <c r="GP35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -21478,7 +21546,9 @@
       <c r="GO36" t="n">
         <v>0</v>
       </c>
-      <c r="GP36" t="inlineStr"/>
+      <c r="GP36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -22082,7 +22152,9 @@
       <c r="GO37" t="n">
         <v>0</v>
       </c>
-      <c r="GP37" t="inlineStr"/>
+      <c r="GP37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -23562,7 +23634,9 @@
       <c r="GO40" t="n">
         <v>0</v>
       </c>
-      <c r="GP40" t="inlineStr"/>
+      <c r="GP40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -24166,7 +24240,9 @@
       <c r="GO41" t="n">
         <v>0</v>
       </c>
-      <c r="GP41" t="inlineStr"/>
+      <c r="GP41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -24770,7 +24846,9 @@
       <c r="GO42" t="n">
         <v>0</v>
       </c>
-      <c r="GP42" t="inlineStr"/>
+      <c r="GP42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -25158,7 +25236,9 @@
       <c r="GO43" t="n">
         <v>0</v>
       </c>
-      <c r="GP43" t="inlineStr"/>
+      <c r="GP43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -25546,7 +25626,9 @@
       <c r="GO44" t="n">
         <v>0</v>
       </c>
-      <c r="GP44" t="inlineStr"/>
+      <c r="GP44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -25934,7 +26016,9 @@
       <c r="GO45" t="n">
         <v>0</v>
       </c>
-      <c r="GP45" t="inlineStr"/>
+      <c r="GP45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -26322,7 +26406,9 @@
       <c r="GO46" t="n">
         <v>0</v>
       </c>
-      <c r="GP46" t="inlineStr"/>
+      <c r="GP46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -26710,7 +26796,9 @@
       <c r="GO47" t="n">
         <v>0</v>
       </c>
-      <c r="GP47" t="inlineStr"/>
+      <c r="GP47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -27098,7 +27186,9 @@
       <c r="GO48" t="n">
         <v>0</v>
       </c>
-      <c r="GP48" t="inlineStr"/>
+      <c r="GP48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -27486,7 +27576,9 @@
       <c r="GO49" t="n">
         <v>0</v>
       </c>
-      <c r="GP49" t="inlineStr"/>
+      <c r="GP49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -27874,7 +27966,9 @@
       <c r="GO50" t="n">
         <v>0</v>
       </c>
-      <c r="GP50" t="inlineStr"/>
+      <c r="GP50" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
+++ b/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GP50"/>
+  <dimension ref="A1:GR50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,6 +1419,16 @@
           <t>2023-12</t>
         </is>
       </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2025,6 +2035,8 @@
       <c r="GP2" t="n">
         <v>0</v>
       </c>
+      <c r="GQ2" t="inlineStr"/>
+      <c r="GR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2631,6 +2643,8 @@
       <c r="GP3" t="n">
         <v>0</v>
       </c>
+      <c r="GQ3" t="inlineStr"/>
+      <c r="GR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3237,6 +3251,8 @@
       <c r="GP4" t="n">
         <v>161.937</v>
       </c>
+      <c r="GQ4" t="inlineStr"/>
+      <c r="GR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3627,6 +3643,8 @@
       <c r="GP5" t="n">
         <v>73.46899999999999</v>
       </c>
+      <c r="GQ5" t="inlineStr"/>
+      <c r="GR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4233,6 +4251,8 @@
       <c r="GP6" t="n">
         <v>0</v>
       </c>
+      <c r="GQ6" t="inlineStr"/>
+      <c r="GR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4839,6 +4859,8 @@
       <c r="GP7" t="n">
         <v>324.412</v>
       </c>
+      <c r="GQ7" t="inlineStr"/>
+      <c r="GR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5445,6 +5467,8 @@
       <c r="GP8" t="n">
         <v>274.676</v>
       </c>
+      <c r="GQ8" t="inlineStr"/>
+      <c r="GR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6051,6 +6075,8 @@
       <c r="GP9" t="n">
         <v>49.735</v>
       </c>
+      <c r="GQ9" t="inlineStr"/>
+      <c r="GR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6657,6 +6683,8 @@
       <c r="GP10" t="n">
         <v>211.672</v>
       </c>
+      <c r="GQ10" t="inlineStr"/>
+      <c r="GR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7047,6 +7075,8 @@
       <c r="GP11" t="n">
         <v>208.935</v>
       </c>
+      <c r="GQ11" t="inlineStr"/>
+      <c r="GR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7653,6 +7683,8 @@
       <c r="GP12" t="n">
         <v>0</v>
       </c>
+      <c r="GQ12" t="inlineStr"/>
+      <c r="GR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8259,6 +8291,8 @@
       <c r="GP13" t="n">
         <v>145.945</v>
       </c>
+      <c r="GQ13" t="inlineStr"/>
+      <c r="GR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -8865,6 +8899,8 @@
       <c r="GP14" t="n">
         <v>61.991</v>
       </c>
+      <c r="GQ14" t="inlineStr"/>
+      <c r="GR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -9255,6 +9291,8 @@
       <c r="GP15" t="n">
         <v>44.991</v>
       </c>
+      <c r="GQ15" t="inlineStr"/>
+      <c r="GR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -9861,6 +9899,8 @@
       <c r="GP16" t="n">
         <v>1</v>
       </c>
+      <c r="GQ16" t="inlineStr"/>
+      <c r="GR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -10251,6 +10291,8 @@
       <c r="GP17" t="n">
         <v>2.737</v>
       </c>
+      <c r="GQ17" t="inlineStr"/>
+      <c r="GR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -10857,6 +10899,8 @@
       <c r="GP18" t="n">
         <v>0</v>
       </c>
+      <c r="GQ18" t="inlineStr"/>
+      <c r="GR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -11463,6 +11507,8 @@
       <c r="GP19" t="n">
         <v>5.168</v>
       </c>
+      <c r="GQ19" t="inlineStr"/>
+      <c r="GR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -12069,6 +12115,8 @@
       <c r="GP20" t="n">
         <v>0</v>
       </c>
+      <c r="GQ20" t="inlineStr"/>
+      <c r="GR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -12675,6 +12723,8 @@
       <c r="GP21" t="n">
         <v>0</v>
       </c>
+      <c r="GQ21" t="inlineStr"/>
+      <c r="GR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -13281,6 +13331,8 @@
       <c r="GP22" t="n">
         <v>0</v>
       </c>
+      <c r="GQ22" t="inlineStr"/>
+      <c r="GR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -13887,6 +13939,8 @@
       <c r="GP23" t="n">
         <v>0</v>
       </c>
+      <c r="GQ23" t="inlineStr"/>
+      <c r="GR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -14493,6 +14547,8 @@
       <c r="GP24" t="n">
         <v>5.168</v>
       </c>
+      <c r="GQ24" t="inlineStr"/>
+      <c r="GR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -15099,6 +15155,8 @@
       <c r="GP25" t="n">
         <v>0</v>
       </c>
+      <c r="GQ25" t="inlineStr"/>
+      <c r="GR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -15705,6 +15763,8 @@
       <c r="GP26" t="n">
         <v>110.326</v>
       </c>
+      <c r="GQ26" t="inlineStr"/>
+      <c r="GR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -16311,6 +16371,8 @@
       <c r="GP27" t="n">
         <v>86.093</v>
       </c>
+      <c r="GQ27" t="inlineStr"/>
+      <c r="GR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -16701,6 +16763,8 @@
       <c r="GP28" t="n">
         <v>0</v>
       </c>
+      <c r="GQ28" t="inlineStr"/>
+      <c r="GR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -17307,6 +17371,8 @@
       <c r="GP29" t="n">
         <v>0</v>
       </c>
+      <c r="GQ29" t="inlineStr"/>
+      <c r="GR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -17913,6 +17979,8 @@
       <c r="GP30" t="n">
         <v>55.188</v>
       </c>
+      <c r="GQ30" t="inlineStr"/>
+      <c r="GR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -18519,6 +18587,8 @@
       <c r="GP31" t="n">
         <v>45.457</v>
       </c>
+      <c r="GQ31" t="inlineStr"/>
+      <c r="GR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -19125,6 +19195,8 @@
       <c r="GP32" t="n">
         <v>9.731</v>
       </c>
+      <c r="GQ32" t="inlineStr"/>
+      <c r="GR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -19731,6 +19803,8 @@
       <c r="GP33" t="n">
         <v>206.149</v>
       </c>
+      <c r="GQ33" t="inlineStr"/>
+      <c r="GR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -20337,6 +20411,8 @@
       <c r="GP34" t="n">
         <v>192.368</v>
       </c>
+      <c r="GQ34" t="inlineStr"/>
+      <c r="GR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -20943,6 +21019,8 @@
       <c r="GP35" t="n">
         <v>0</v>
       </c>
+      <c r="GQ35" t="inlineStr"/>
+      <c r="GR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -21549,6 +21627,8 @@
       <c r="GP36" t="n">
         <v>0</v>
       </c>
+      <c r="GQ36" t="inlineStr"/>
+      <c r="GR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -22155,6 +22235,8 @@
       <c r="GP37" t="n">
         <v>0</v>
       </c>
+      <c r="GQ37" t="inlineStr"/>
+      <c r="GR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -22593,6 +22675,8 @@
       <c r="GN38" t="inlineStr"/>
       <c r="GO38" t="inlineStr"/>
       <c r="GP38" t="inlineStr"/>
+      <c r="GQ38" t="inlineStr"/>
+      <c r="GR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -23031,6 +23115,8 @@
       <c r="GN39" t="inlineStr"/>
       <c r="GO39" t="inlineStr"/>
       <c r="GP39" t="inlineStr"/>
+      <c r="GQ39" t="inlineStr"/>
+      <c r="GR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -23637,6 +23723,8 @@
       <c r="GP40" t="n">
         <v>0</v>
       </c>
+      <c r="GQ40" t="inlineStr"/>
+      <c r="GR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -24243,6 +24331,8 @@
       <c r="GP41" t="n">
         <v>0</v>
       </c>
+      <c r="GQ41" t="inlineStr"/>
+      <c r="GR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -24849,6 +24939,8 @@
       <c r="GP42" t="n">
         <v>0</v>
       </c>
+      <c r="GQ42" t="inlineStr"/>
+      <c r="GR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -25239,6 +25331,8 @@
       <c r="GP43" t="n">
         <v>0</v>
       </c>
+      <c r="GQ43" t="inlineStr"/>
+      <c r="GR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -25629,6 +25723,8 @@
       <c r="GP44" t="n">
         <v>0</v>
       </c>
+      <c r="GQ44" t="inlineStr"/>
+      <c r="GR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -26019,6 +26115,8 @@
       <c r="GP45" t="n">
         <v>0</v>
       </c>
+      <c r="GQ45" t="inlineStr"/>
+      <c r="GR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -26409,6 +26507,8 @@
       <c r="GP46" t="n">
         <v>0</v>
       </c>
+      <c r="GQ46" t="inlineStr"/>
+      <c r="GR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -26799,6 +26899,8 @@
       <c r="GP47" t="n">
         <v>0</v>
       </c>
+      <c r="GQ47" t="inlineStr"/>
+      <c r="GR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -27189,6 +27291,8 @@
       <c r="GP48" t="n">
         <v>0</v>
       </c>
+      <c r="GQ48" t="inlineStr"/>
+      <c r="GR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -27579,6 +27683,8 @@
       <c r="GP49" t="n">
         <v>0</v>
       </c>
+      <c r="GQ49" t="inlineStr"/>
+      <c r="GR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -27969,6 +28075,8 @@
       <c r="GP50" t="n">
         <v>0</v>
       </c>
+      <c r="GQ50" t="inlineStr"/>
+      <c r="GR50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
+++ b/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
@@ -2035,7 +2035,9 @@
       <c r="GP2" t="n">
         <v>0</v>
       </c>
-      <c r="GQ2" t="inlineStr"/>
+      <c r="GQ2" t="n">
+        <v>0</v>
+      </c>
       <c r="GR2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -2643,7 +2645,9 @@
       <c r="GP3" t="n">
         <v>0</v>
       </c>
-      <c r="GQ3" t="inlineStr"/>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
       <c r="GR3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -3251,7 +3255,9 @@
       <c r="GP4" t="n">
         <v>161.937</v>
       </c>
-      <c r="GQ4" t="inlineStr"/>
+      <c r="GQ4" t="n">
+        <v>194.417</v>
+      </c>
       <c r="GR4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -3643,7 +3649,9 @@
       <c r="GP5" t="n">
         <v>73.46899999999999</v>
       </c>
-      <c r="GQ5" t="inlineStr"/>
+      <c r="GQ5" t="n">
+        <v>89.584</v>
+      </c>
       <c r="GR5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -4251,7 +4259,9 @@
       <c r="GP6" t="n">
         <v>0</v>
       </c>
-      <c r="GQ6" t="inlineStr"/>
+      <c r="GQ6" t="n">
+        <v>0</v>
+      </c>
       <c r="GR6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -4859,7 +4869,9 @@
       <c r="GP7" t="n">
         <v>324.412</v>
       </c>
-      <c r="GQ7" t="inlineStr"/>
+      <c r="GQ7" t="n">
+        <v>274.676</v>
+      </c>
       <c r="GR7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -5467,7 +5479,9 @@
       <c r="GP8" t="n">
         <v>274.676</v>
       </c>
-      <c r="GQ8" t="inlineStr"/>
+      <c r="GQ8" t="n">
+        <v>262.828</v>
+      </c>
       <c r="GR8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -6075,7 +6089,9 @@
       <c r="GP9" t="n">
         <v>49.735</v>
       </c>
-      <c r="GQ9" t="inlineStr"/>
+      <c r="GQ9" t="n">
+        <v>11.848</v>
+      </c>
       <c r="GR9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -6683,7 +6699,9 @@
       <c r="GP10" t="n">
         <v>211.672</v>
       </c>
-      <c r="GQ10" t="inlineStr"/>
+      <c r="GQ10" t="n">
+        <v>206.265</v>
+      </c>
       <c r="GR10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -7075,7 +7093,9 @@
       <c r="GP11" t="n">
         <v>208.935</v>
       </c>
-      <c r="GQ11" t="inlineStr"/>
+      <c r="GQ11" t="n">
+        <v>205.498</v>
+      </c>
       <c r="GR11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -7683,7 +7703,9 @@
       <c r="GP12" t="n">
         <v>0</v>
       </c>
-      <c r="GQ12" t="inlineStr"/>
+      <c r="GQ12" t="n">
+        <v>0</v>
+      </c>
       <c r="GR12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -8291,7 +8313,9 @@
       <c r="GP13" t="n">
         <v>145.945</v>
       </c>
-      <c r="GQ13" t="inlineStr"/>
+      <c r="GQ13" t="n">
+        <v>147.532</v>
+      </c>
       <c r="GR13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -8899,7 +8923,9 @@
       <c r="GP14" t="n">
         <v>61.991</v>
       </c>
-      <c r="GQ14" t="inlineStr"/>
+      <c r="GQ14" t="n">
+        <v>56.966</v>
+      </c>
       <c r="GR14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -9291,7 +9317,9 @@
       <c r="GP15" t="n">
         <v>44.991</v>
       </c>
-      <c r="GQ15" t="inlineStr"/>
+      <c r="GQ15" t="n">
+        <v>52.966</v>
+      </c>
       <c r="GR15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -9899,7 +9927,9 @@
       <c r="GP16" t="n">
         <v>1</v>
       </c>
-      <c r="GQ16" t="inlineStr"/>
+      <c r="GQ16" t="n">
+        <v>1</v>
+      </c>
       <c r="GR16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -10291,7 +10321,9 @@
       <c r="GP17" t="n">
         <v>2.737</v>
       </c>
-      <c r="GQ17" t="inlineStr"/>
+      <c r="GQ17" t="n">
+        <v>0.767</v>
+      </c>
       <c r="GR17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -10899,7 +10931,9 @@
       <c r="GP18" t="n">
         <v>0</v>
       </c>
-      <c r="GQ18" t="inlineStr"/>
+      <c r="GQ18" t="n">
+        <v>0</v>
+      </c>
       <c r="GR18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -11507,7 +11541,9 @@
       <c r="GP19" t="n">
         <v>5.168</v>
       </c>
-      <c r="GQ19" t="inlineStr"/>
+      <c r="GQ19" t="n">
+        <v>5.291</v>
+      </c>
       <c r="GR19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -12115,7 +12151,9 @@
       <c r="GP20" t="n">
         <v>0</v>
       </c>
-      <c r="GQ20" t="inlineStr"/>
+      <c r="GQ20" t="n">
+        <v>0</v>
+      </c>
       <c r="GR20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -12723,7 +12761,9 @@
       <c r="GP21" t="n">
         <v>0</v>
       </c>
-      <c r="GQ21" t="inlineStr"/>
+      <c r="GQ21" t="n">
+        <v>0</v>
+      </c>
       <c r="GR21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -13331,7 +13371,9 @@
       <c r="GP22" t="n">
         <v>0</v>
       </c>
-      <c r="GQ22" t="inlineStr"/>
+      <c r="GQ22" t="n">
+        <v>0</v>
+      </c>
       <c r="GR22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -13939,7 +13981,9 @@
       <c r="GP23" t="n">
         <v>0</v>
       </c>
-      <c r="GQ23" t="inlineStr"/>
+      <c r="GQ23" t="n">
+        <v>0</v>
+      </c>
       <c r="GR23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -14547,7 +14591,9 @@
       <c r="GP24" t="n">
         <v>5.168</v>
       </c>
-      <c r="GQ24" t="inlineStr"/>
+      <c r="GQ24" t="n">
+        <v>5.291</v>
+      </c>
       <c r="GR24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -15155,7 +15201,9 @@
       <c r="GP25" t="n">
         <v>0</v>
       </c>
-      <c r="GQ25" t="inlineStr"/>
+      <c r="GQ25" t="n">
+        <v>0</v>
+      </c>
       <c r="GR25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -15763,7 +15811,9 @@
       <c r="GP26" t="n">
         <v>110.326</v>
       </c>
-      <c r="GQ26" t="inlineStr"/>
+      <c r="GQ26" t="n">
+        <v>108.492</v>
+      </c>
       <c r="GR26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -16371,7 +16421,9 @@
       <c r="GP27" t="n">
         <v>86.093</v>
       </c>
-      <c r="GQ27" t="inlineStr"/>
+      <c r="GQ27" t="n">
+        <v>93.84</v>
+      </c>
       <c r="GR27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -16763,7 +16815,9 @@
       <c r="GP28" t="n">
         <v>0</v>
       </c>
-      <c r="GQ28" t="inlineStr"/>
+      <c r="GQ28" t="n">
+        <v>0</v>
+      </c>
       <c r="GR28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -17371,7 +17425,9 @@
       <c r="GP29" t="n">
         <v>0</v>
       </c>
-      <c r="GQ29" t="inlineStr"/>
+      <c r="GQ29" t="n">
+        <v>0</v>
+      </c>
       <c r="GR29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -17979,7 +18035,9 @@
       <c r="GP30" t="n">
         <v>55.188</v>
       </c>
-      <c r="GQ30" t="inlineStr"/>
+      <c r="GQ30" t="n">
+        <v>45.457</v>
+      </c>
       <c r="GR30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -18587,7 +18645,9 @@
       <c r="GP31" t="n">
         <v>45.457</v>
       </c>
-      <c r="GQ31" t="inlineStr"/>
+      <c r="GQ31" t="n">
+        <v>38.412</v>
+      </c>
       <c r="GR31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -19195,7 +19255,9 @@
       <c r="GP32" t="n">
         <v>9.731</v>
       </c>
-      <c r="GQ32" t="inlineStr"/>
+      <c r="GQ32" t="n">
+        <v>7.045</v>
+      </c>
       <c r="GR32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -19803,7 +19865,9 @@
       <c r="GP33" t="n">
         <v>206.149</v>
       </c>
-      <c r="GQ33" t="inlineStr"/>
+      <c r="GQ33" t="n">
+        <v>209.377</v>
+      </c>
       <c r="GR33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -20411,7 +20475,9 @@
       <c r="GP34" t="n">
         <v>192.368</v>
       </c>
-      <c r="GQ34" t="inlineStr"/>
+      <c r="GQ34" t="n">
+        <v>196.074</v>
+      </c>
       <c r="GR34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -21019,7 +21085,9 @@
       <c r="GP35" t="n">
         <v>0</v>
       </c>
-      <c r="GQ35" t="inlineStr"/>
+      <c r="GQ35" t="n">
+        <v>0</v>
+      </c>
       <c r="GR35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -21627,7 +21695,9 @@
       <c r="GP36" t="n">
         <v>0</v>
       </c>
-      <c r="GQ36" t="inlineStr"/>
+      <c r="GQ36" t="n">
+        <v>0</v>
+      </c>
       <c r="GR36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -22235,7 +22305,9 @@
       <c r="GP37" t="n">
         <v>0</v>
       </c>
-      <c r="GQ37" t="inlineStr"/>
+      <c r="GQ37" t="n">
+        <v>0</v>
+      </c>
       <c r="GR37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -23723,7 +23795,9 @@
       <c r="GP40" t="n">
         <v>0</v>
       </c>
-      <c r="GQ40" t="inlineStr"/>
+      <c r="GQ40" t="n">
+        <v>0</v>
+      </c>
       <c r="GR40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -24331,7 +24405,9 @@
       <c r="GP41" t="n">
         <v>0</v>
       </c>
-      <c r="GQ41" t="inlineStr"/>
+      <c r="GQ41" t="n">
+        <v>0</v>
+      </c>
       <c r="GR41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -24939,7 +25015,9 @@
       <c r="GP42" t="n">
         <v>0</v>
       </c>
-      <c r="GQ42" t="inlineStr"/>
+      <c r="GQ42" t="n">
+        <v>0</v>
+      </c>
       <c r="GR42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -25331,7 +25409,9 @@
       <c r="GP43" t="n">
         <v>0</v>
       </c>
-      <c r="GQ43" t="inlineStr"/>
+      <c r="GQ43" t="n">
+        <v>0</v>
+      </c>
       <c r="GR43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -25723,7 +25803,9 @@
       <c r="GP44" t="n">
         <v>0</v>
       </c>
-      <c r="GQ44" t="inlineStr"/>
+      <c r="GQ44" t="n">
+        <v>0</v>
+      </c>
       <c r="GR44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -26115,7 +26197,9 @@
       <c r="GP45" t="n">
         <v>0</v>
       </c>
-      <c r="GQ45" t="inlineStr"/>
+      <c r="GQ45" t="n">
+        <v>0</v>
+      </c>
       <c r="GR45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -26507,7 +26591,9 @@
       <c r="GP46" t="n">
         <v>0</v>
       </c>
-      <c r="GQ46" t="inlineStr"/>
+      <c r="GQ46" t="n">
+        <v>0</v>
+      </c>
       <c r="GR46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -26899,7 +26985,9 @@
       <c r="GP47" t="n">
         <v>0</v>
       </c>
-      <c r="GQ47" t="inlineStr"/>
+      <c r="GQ47" t="n">
+        <v>0</v>
+      </c>
       <c r="GR47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -27291,7 +27379,9 @@
       <c r="GP48" t="n">
         <v>0</v>
       </c>
-      <c r="GQ48" t="inlineStr"/>
+      <c r="GQ48" t="n">
+        <v>0</v>
+      </c>
       <c r="GR48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -27683,7 +27773,9 @@
       <c r="GP49" t="n">
         <v>0</v>
       </c>
-      <c r="GQ49" t="inlineStr"/>
+      <c r="GQ49" t="n">
+        <v>0</v>
+      </c>
       <c r="GR49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -28075,7 +28167,9 @@
       <c r="GP50" t="n">
         <v>0</v>
       </c>
-      <c r="GQ50" t="inlineStr"/>
+      <c r="GQ50" t="n">
+        <v>0</v>
+      </c>
       <c r="GR50" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
+++ b/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GR50"/>
+  <dimension ref="A1:GS50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1429,6 +1429,11 @@
           <t>2024-02</t>
         </is>
       </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2038,7 +2043,10 @@
       <c r="GQ2" t="n">
         <v>0</v>
       </c>
-      <c r="GR2" t="inlineStr"/>
+      <c r="GR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2648,7 +2656,10 @@
       <c r="GQ3" t="n">
         <v>0</v>
       </c>
-      <c r="GR3" t="inlineStr"/>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3256,9 +3267,12 @@
         <v>161.937</v>
       </c>
       <c r="GQ4" t="n">
-        <v>194.417</v>
-      </c>
-      <c r="GR4" t="inlineStr"/>
+        <v>226.934</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>202.213</v>
+      </c>
+      <c r="GS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3650,9 +3664,12 @@
         <v>73.46899999999999</v>
       </c>
       <c r="GQ5" t="n">
-        <v>89.584</v>
-      </c>
-      <c r="GR5" t="inlineStr"/>
+        <v>104.567</v>
+      </c>
+      <c r="GR5" t="n">
+        <v>96.98699999999999</v>
+      </c>
+      <c r="GS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4262,7 +4279,10 @@
       <c r="GQ6" t="n">
         <v>0</v>
       </c>
-      <c r="GR6" t="inlineStr"/>
+      <c r="GR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4872,7 +4892,10 @@
       <c r="GQ7" t="n">
         <v>274.676</v>
       </c>
-      <c r="GR7" t="inlineStr"/>
+      <c r="GR7" t="n">
+        <v>279.399</v>
+      </c>
+      <c r="GS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5480,9 +5503,12 @@
         <v>274.676</v>
       </c>
       <c r="GQ8" t="n">
-        <v>262.828</v>
-      </c>
-      <c r="GR8" t="inlineStr"/>
+        <v>279.399</v>
+      </c>
+      <c r="GR8" t="n">
+        <v>278.357</v>
+      </c>
+      <c r="GS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6090,9 +6116,12 @@
         <v>49.735</v>
       </c>
       <c r="GQ9" t="n">
-        <v>11.848</v>
-      </c>
-      <c r="GR9" t="inlineStr"/>
+        <v>-4.722</v>
+      </c>
+      <c r="GR9" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="GS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6700,9 +6729,12 @@
         <v>211.672</v>
       </c>
       <c r="GQ10" t="n">
-        <v>206.265</v>
-      </c>
-      <c r="GR10" t="inlineStr"/>
+        <v>222.212</v>
+      </c>
+      <c r="GR10" t="n">
+        <v>203.254</v>
+      </c>
+      <c r="GS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7094,9 +7126,12 @@
         <v>208.935</v>
       </c>
       <c r="GQ11" t="n">
-        <v>205.498</v>
-      </c>
-      <c r="GR11" t="inlineStr"/>
+        <v>223.412</v>
+      </c>
+      <c r="GR11" t="n">
+        <v>204.394</v>
+      </c>
+      <c r="GS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7706,7 +7741,10 @@
       <c r="GQ12" t="n">
         <v>0</v>
       </c>
-      <c r="GR12" t="inlineStr"/>
+      <c r="GR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8316,7 +8354,10 @@
       <c r="GQ13" t="n">
         <v>147.532</v>
       </c>
-      <c r="GR13" t="inlineStr"/>
+      <c r="GR13" t="n">
+        <v>139.323</v>
+      </c>
+      <c r="GS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -8924,9 +8965,12 @@
         <v>61.991</v>
       </c>
       <c r="GQ14" t="n">
-        <v>56.966</v>
-      </c>
-      <c r="GR14" t="inlineStr"/>
+        <v>74.88</v>
+      </c>
+      <c r="GR14" t="n">
+        <v>64.071</v>
+      </c>
+      <c r="GS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -9318,9 +9362,12 @@
         <v>44.991</v>
       </c>
       <c r="GQ15" t="n">
-        <v>52.966</v>
-      </c>
-      <c r="GR15" t="inlineStr"/>
+        <v>70.88</v>
+      </c>
+      <c r="GR15" t="n">
+        <v>60.071</v>
+      </c>
+      <c r="GS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -9930,7 +9977,10 @@
       <c r="GQ16" t="n">
         <v>1</v>
       </c>
-      <c r="GR16" t="inlineStr"/>
+      <c r="GR16" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -10322,9 +10372,12 @@
         <v>2.737</v>
       </c>
       <c r="GQ17" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="GR17" t="inlineStr"/>
+        <v>-1.2</v>
+      </c>
+      <c r="GR17" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="GS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -10934,7 +10987,10 @@
       <c r="GQ18" t="n">
         <v>0</v>
       </c>
-      <c r="GR18" t="inlineStr"/>
+      <c r="GR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -11544,7 +11600,10 @@
       <c r="GQ19" t="n">
         <v>5.291</v>
       </c>
-      <c r="GR19" t="inlineStr"/>
+      <c r="GR19" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="GS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -12154,7 +12213,10 @@
       <c r="GQ20" t="n">
         <v>0</v>
       </c>
-      <c r="GR20" t="inlineStr"/>
+      <c r="GR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -12764,7 +12826,10 @@
       <c r="GQ21" t="n">
         <v>0</v>
       </c>
-      <c r="GR21" t="inlineStr"/>
+      <c r="GR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -13374,7 +13439,10 @@
       <c r="GQ22" t="n">
         <v>0</v>
       </c>
-      <c r="GR22" t="inlineStr"/>
+      <c r="GR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -13984,7 +14052,10 @@
       <c r="GQ23" t="n">
         <v>0</v>
       </c>
-      <c r="GR23" t="inlineStr"/>
+      <c r="GR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -14594,7 +14665,10 @@
       <c r="GQ24" t="n">
         <v>5.291</v>
       </c>
-      <c r="GR24" t="inlineStr"/>
+      <c r="GR24" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="GS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -15204,7 +15278,10 @@
       <c r="GQ25" t="n">
         <v>0</v>
       </c>
-      <c r="GR25" t="inlineStr"/>
+      <c r="GR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -15814,7 +15891,10 @@
       <c r="GQ26" t="n">
         <v>108.492</v>
       </c>
-      <c r="GR26" t="inlineStr"/>
+      <c r="GR26" t="n">
+        <v>96.321</v>
+      </c>
+      <c r="GS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -16424,7 +16504,10 @@
       <c r="GQ27" t="n">
         <v>93.84</v>
       </c>
-      <c r="GR27" t="inlineStr"/>
+      <c r="GR27" t="n">
+        <v>108.974</v>
+      </c>
+      <c r="GS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -16818,7 +16901,10 @@
       <c r="GQ28" t="n">
         <v>0</v>
       </c>
-      <c r="GR28" t="inlineStr"/>
+      <c r="GR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -17428,7 +17514,10 @@
       <c r="GQ29" t="n">
         <v>0</v>
       </c>
-      <c r="GR29" t="inlineStr"/>
+      <c r="GR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -18038,7 +18127,10 @@
       <c r="GQ30" t="n">
         <v>45.457</v>
       </c>
-      <c r="GR30" t="inlineStr"/>
+      <c r="GR30" t="n">
+        <v>38.412</v>
+      </c>
+      <c r="GS30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -18648,7 +18740,10 @@
       <c r="GQ31" t="n">
         <v>38.412</v>
       </c>
-      <c r="GR31" t="inlineStr"/>
+      <c r="GR31" t="n">
+        <v>55.634</v>
+      </c>
+      <c r="GS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -19258,7 +19353,10 @@
       <c r="GQ32" t="n">
         <v>7.045</v>
       </c>
-      <c r="GR32" t="inlineStr"/>
+      <c r="GR32" t="n">
+        <v>-17.222</v>
+      </c>
+      <c r="GS32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -19868,7 +19966,10 @@
       <c r="GQ33" t="n">
         <v>209.377</v>
       </c>
-      <c r="GR33" t="inlineStr"/>
+      <c r="GR33" t="n">
+        <v>188.073</v>
+      </c>
+      <c r="GS33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -20478,7 +20579,10 @@
       <c r="GQ34" t="n">
         <v>196.074</v>
       </c>
-      <c r="GR34" t="inlineStr"/>
+      <c r="GR34" t="n">
+        <v>173.34</v>
+      </c>
+      <c r="GS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -21088,7 +21192,10 @@
       <c r="GQ35" t="n">
         <v>0</v>
       </c>
-      <c r="GR35" t="inlineStr"/>
+      <c r="GR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -21698,7 +21805,10 @@
       <c r="GQ36" t="n">
         <v>0</v>
       </c>
-      <c r="GR36" t="inlineStr"/>
+      <c r="GR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -22308,7 +22418,10 @@
       <c r="GQ37" t="n">
         <v>0</v>
       </c>
-      <c r="GR37" t="inlineStr"/>
+      <c r="GR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -22749,6 +22862,7 @@
       <c r="GP38" t="inlineStr"/>
       <c r="GQ38" t="inlineStr"/>
       <c r="GR38" t="inlineStr"/>
+      <c r="GS38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -23189,6 +23303,7 @@
       <c r="GP39" t="inlineStr"/>
       <c r="GQ39" t="inlineStr"/>
       <c r="GR39" t="inlineStr"/>
+      <c r="GS39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -23798,7 +23913,10 @@
       <c r="GQ40" t="n">
         <v>0</v>
       </c>
-      <c r="GR40" t="inlineStr"/>
+      <c r="GR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -24408,7 +24526,10 @@
       <c r="GQ41" t="n">
         <v>0</v>
       </c>
-      <c r="GR41" t="inlineStr"/>
+      <c r="GR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -25018,7 +25139,10 @@
       <c r="GQ42" t="n">
         <v>0</v>
       </c>
-      <c r="GR42" t="inlineStr"/>
+      <c r="GR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -25412,7 +25536,10 @@
       <c r="GQ43" t="n">
         <v>0</v>
       </c>
-      <c r="GR43" t="inlineStr"/>
+      <c r="GR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -25806,7 +25933,10 @@
       <c r="GQ44" t="n">
         <v>0</v>
       </c>
-      <c r="GR44" t="inlineStr"/>
+      <c r="GR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -26200,7 +26330,10 @@
       <c r="GQ45" t="n">
         <v>0</v>
       </c>
-      <c r="GR45" t="inlineStr"/>
+      <c r="GR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -26594,7 +26727,10 @@
       <c r="GQ46" t="n">
         <v>0</v>
       </c>
-      <c r="GR46" t="inlineStr"/>
+      <c r="GR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -26988,7 +27124,10 @@
       <c r="GQ47" t="n">
         <v>0</v>
       </c>
-      <c r="GR47" t="inlineStr"/>
+      <c r="GR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -27382,7 +27521,10 @@
       <c r="GQ48" t="n">
         <v>0</v>
       </c>
-      <c r="GR48" t="inlineStr"/>
+      <c r="GR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -27776,7 +27918,10 @@
       <c r="GQ49" t="n">
         <v>0</v>
       </c>
-      <c r="GR49" t="inlineStr"/>
+      <c r="GR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -28170,7 +28315,10 @@
       <c r="GQ50" t="n">
         <v>0</v>
       </c>
-      <c r="GR50" t="inlineStr"/>
+      <c r="GR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
+++ b/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GS50"/>
+  <dimension ref="A1:GT50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1434,6 +1434,11 @@
           <t>2024-03</t>
         </is>
       </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2046,7 +2051,10 @@
       <c r="GR2" t="n">
         <v>0</v>
       </c>
-      <c r="GS2" t="inlineStr"/>
+      <c r="GS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2659,7 +2667,10 @@
       <c r="GR3" t="n">
         <v>0</v>
       </c>
-      <c r="GS3" t="inlineStr"/>
+      <c r="GS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3272,7 +3283,10 @@
       <c r="GR4" t="n">
         <v>202.213</v>
       </c>
-      <c r="GS4" t="inlineStr"/>
+      <c r="GS4" t="n">
+        <v>186.384</v>
+      </c>
+      <c r="GT4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3669,7 +3683,10 @@
       <c r="GR5" t="n">
         <v>96.98699999999999</v>
       </c>
-      <c r="GS5" t="inlineStr"/>
+      <c r="GS5" t="n">
+        <v>92.083</v>
+      </c>
+      <c r="GT5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4282,7 +4299,10 @@
       <c r="GR6" t="n">
         <v>0</v>
       </c>
-      <c r="GS6" t="inlineStr"/>
+      <c r="GS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4895,7 +4915,10 @@
       <c r="GR7" t="n">
         <v>279.399</v>
       </c>
-      <c r="GS7" t="inlineStr"/>
+      <c r="GS7" t="n">
+        <v>278.357</v>
+      </c>
+      <c r="GT7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5508,7 +5531,10 @@
       <c r="GR8" t="n">
         <v>278.357</v>
       </c>
-      <c r="GS8" t="inlineStr"/>
+      <c r="GS8" t="n">
+        <v>243.919</v>
+      </c>
+      <c r="GT8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6121,7 +6147,10 @@
       <c r="GR9" t="n">
         <v>1.041</v>
       </c>
-      <c r="GS9" t="inlineStr"/>
+      <c r="GS9" t="n">
+        <v>34.439</v>
+      </c>
+      <c r="GT9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6734,7 +6763,10 @@
       <c r="GR10" t="n">
         <v>203.254</v>
       </c>
-      <c r="GS10" t="inlineStr"/>
+      <c r="GS10" t="n">
+        <v>220.823</v>
+      </c>
+      <c r="GT10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7131,7 +7163,10 @@
       <c r="GR11" t="n">
         <v>204.394</v>
       </c>
-      <c r="GS11" t="inlineStr"/>
+      <c r="GS11" t="n">
+        <v>217.259</v>
+      </c>
+      <c r="GT11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7744,7 +7779,10 @@
       <c r="GR12" t="n">
         <v>0</v>
       </c>
-      <c r="GS12" t="inlineStr"/>
+      <c r="GS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8357,7 +8395,10 @@
       <c r="GR13" t="n">
         <v>139.323</v>
       </c>
-      <c r="GS13" t="inlineStr"/>
+      <c r="GS13" t="n">
+        <v>145.615</v>
+      </c>
+      <c r="GT13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -8970,7 +9011,10 @@
       <c r="GR14" t="n">
         <v>64.071</v>
       </c>
-      <c r="GS14" t="inlineStr"/>
+      <c r="GS14" t="n">
+        <v>70.64400000000001</v>
+      </c>
+      <c r="GT14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -9367,7 +9411,10 @@
       <c r="GR15" t="n">
         <v>60.071</v>
       </c>
-      <c r="GS15" t="inlineStr"/>
+      <c r="GS15" t="n">
+        <v>70.64400000000001</v>
+      </c>
+      <c r="GT15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -9980,7 +10027,10 @@
       <c r="GR16" t="n">
         <v>1</v>
       </c>
-      <c r="GS16" t="inlineStr"/>
+      <c r="GS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -10377,7 +10427,10 @@
       <c r="GR17" t="n">
         <v>-1.14</v>
       </c>
-      <c r="GS17" t="inlineStr"/>
+      <c r="GS17" t="n">
+        <v>3.565</v>
+      </c>
+      <c r="GT17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -10990,7 +11043,10 @@
       <c r="GR18" t="n">
         <v>0</v>
       </c>
-      <c r="GS18" t="inlineStr"/>
+      <c r="GS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -11603,7 +11659,10 @@
       <c r="GR19" t="n">
         <v>0.766</v>
       </c>
-      <c r="GS19" t="inlineStr"/>
+      <c r="GS19" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="GT19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -12216,7 +12275,10 @@
       <c r="GR20" t="n">
         <v>0</v>
       </c>
-      <c r="GS20" t="inlineStr"/>
+      <c r="GS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -12829,7 +12891,10 @@
       <c r="GR21" t="n">
         <v>0</v>
       </c>
-      <c r="GS21" t="inlineStr"/>
+      <c r="GS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -13442,7 +13507,10 @@
       <c r="GR22" t="n">
         <v>0</v>
       </c>
-      <c r="GS22" t="inlineStr"/>
+      <c r="GS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -14055,7 +14123,10 @@
       <c r="GR23" t="n">
         <v>0</v>
       </c>
-      <c r="GS23" t="inlineStr"/>
+      <c r="GS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -14668,7 +14739,10 @@
       <c r="GR24" t="n">
         <v>0.766</v>
       </c>
-      <c r="GS24" t="inlineStr"/>
+      <c r="GS24" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="GT24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -15281,7 +15355,10 @@
       <c r="GR25" t="n">
         <v>0</v>
       </c>
-      <c r="GS25" t="inlineStr"/>
+      <c r="GS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -15894,7 +15971,10 @@
       <c r="GR26" t="n">
         <v>96.321</v>
       </c>
-      <c r="GS26" t="inlineStr"/>
+      <c r="GS26" t="n">
+        <v>108.055</v>
+      </c>
+      <c r="GT26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -16507,7 +16587,10 @@
       <c r="GR27" t="n">
         <v>108.974</v>
       </c>
-      <c r="GS27" t="inlineStr"/>
+      <c r="GS27" t="n">
+        <v>128.981</v>
+      </c>
+      <c r="GT27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -16904,7 +16987,10 @@
       <c r="GR28" t="n">
         <v>0</v>
       </c>
-      <c r="GS28" t="inlineStr"/>
+      <c r="GS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -17517,7 +17603,10 @@
       <c r="GR29" t="n">
         <v>0</v>
       </c>
-      <c r="GS29" t="inlineStr"/>
+      <c r="GS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -18130,7 +18219,10 @@
       <c r="GR30" t="n">
         <v>38.412</v>
       </c>
-      <c r="GS30" t="inlineStr"/>
+      <c r="GS30" t="n">
+        <v>55.634</v>
+      </c>
+      <c r="GT30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -18743,7 +18835,10 @@
       <c r="GR31" t="n">
         <v>55.634</v>
       </c>
-      <c r="GS31" t="inlineStr"/>
+      <c r="GS31" t="n">
+        <v>76.38500000000001</v>
+      </c>
+      <c r="GT31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -19356,7 +19451,10 @@
       <c r="GR32" t="n">
         <v>-17.222</v>
       </c>
-      <c r="GS32" t="inlineStr"/>
+      <c r="GS32" t="n">
+        <v>-20.751</v>
+      </c>
+      <c r="GT32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -19969,7 +20067,10 @@
       <c r="GR33" t="n">
         <v>188.073</v>
       </c>
-      <c r="GS33" t="inlineStr"/>
+      <c r="GS33" t="n">
+        <v>216.285</v>
+      </c>
+      <c r="GT33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -20582,7 +20683,10 @@
       <c r="GR34" t="n">
         <v>173.34</v>
       </c>
-      <c r="GS34" t="inlineStr"/>
+      <c r="GS34" t="n">
+        <v>198.686</v>
+      </c>
+      <c r="GT34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -21195,7 +21299,10 @@
       <c r="GR35" t="n">
         <v>0</v>
       </c>
-      <c r="GS35" t="inlineStr"/>
+      <c r="GS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -21808,7 +21915,10 @@
       <c r="GR36" t="n">
         <v>0</v>
       </c>
-      <c r="GS36" t="inlineStr"/>
+      <c r="GS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -22421,7 +22531,10 @@
       <c r="GR37" t="n">
         <v>0</v>
       </c>
-      <c r="GS37" t="inlineStr"/>
+      <c r="GS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -22863,6 +22976,7 @@
       <c r="GQ38" t="inlineStr"/>
       <c r="GR38" t="inlineStr"/>
       <c r="GS38" t="inlineStr"/>
+      <c r="GT38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -23304,6 +23418,7 @@
       <c r="GQ39" t="inlineStr"/>
       <c r="GR39" t="inlineStr"/>
       <c r="GS39" t="inlineStr"/>
+      <c r="GT39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -23916,7 +24031,10 @@
       <c r="GR40" t="n">
         <v>0</v>
       </c>
-      <c r="GS40" t="inlineStr"/>
+      <c r="GS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -24529,7 +24647,10 @@
       <c r="GR41" t="n">
         <v>0</v>
       </c>
-      <c r="GS41" t="inlineStr"/>
+      <c r="GS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -25142,7 +25263,10 @@
       <c r="GR42" t="n">
         <v>0</v>
       </c>
-      <c r="GS42" t="inlineStr"/>
+      <c r="GS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -25539,7 +25663,10 @@
       <c r="GR43" t="n">
         <v>0</v>
       </c>
-      <c r="GS43" t="inlineStr"/>
+      <c r="GS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -25936,7 +26063,10 @@
       <c r="GR44" t="n">
         <v>0</v>
       </c>
-      <c r="GS44" t="inlineStr"/>
+      <c r="GS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -26333,7 +26463,10 @@
       <c r="GR45" t="n">
         <v>0</v>
       </c>
-      <c r="GS45" t="inlineStr"/>
+      <c r="GS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -26730,7 +26863,10 @@
       <c r="GR46" t="n">
         <v>0</v>
       </c>
-      <c r="GS46" t="inlineStr"/>
+      <c r="GS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -27127,7 +27263,10 @@
       <c r="GR47" t="n">
         <v>0</v>
       </c>
-      <c r="GS47" t="inlineStr"/>
+      <c r="GS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -27524,7 +27663,10 @@
       <c r="GR48" t="n">
         <v>0</v>
       </c>
-      <c r="GS48" t="inlineStr"/>
+      <c r="GS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -27921,7 +28063,10 @@
       <c r="GR49" t="n">
         <v>0</v>
       </c>
-      <c r="GS49" t="inlineStr"/>
+      <c r="GS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -28318,7 +28463,10 @@
       <c r="GR50" t="n">
         <v>0</v>
       </c>
-      <c r="GS50" t="inlineStr"/>
+      <c r="GS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
+++ b/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GT50"/>
+  <dimension ref="A1:GX50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1439,6 +1439,26 @@
           <t>2024-04</t>
         </is>
       </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2054,7 +2074,19 @@
       <c r="GS2" t="n">
         <v>0</v>
       </c>
-      <c r="GT2" t="inlineStr"/>
+      <c r="GT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2670,7 +2702,19 @@
       <c r="GS3" t="n">
         <v>0</v>
       </c>
-      <c r="GT3" t="inlineStr"/>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3286,7 +3330,19 @@
       <c r="GS4" t="n">
         <v>186.384</v>
       </c>
-      <c r="GT4" t="inlineStr"/>
+      <c r="GT4" t="n">
+        <v>184.42</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>222.059</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>190.371</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>202.314</v>
+      </c>
+      <c r="GX4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3686,7 +3742,19 @@
       <c r="GS5" t="n">
         <v>92.083</v>
       </c>
-      <c r="GT5" t="inlineStr"/>
+      <c r="GT5" t="n">
+        <v>86.098</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>106.059</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>75.117</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>77.096</v>
+      </c>
+      <c r="GX5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4302,7 +4370,19 @@
       <c r="GS6" t="n">
         <v>0</v>
       </c>
-      <c r="GT6" t="inlineStr"/>
+      <c r="GT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4918,7 +4998,19 @@
       <c r="GS7" t="n">
         <v>278.357</v>
       </c>
-      <c r="GT7" t="inlineStr"/>
+      <c r="GT7" t="n">
+        <v>243.919</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>219.103</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>227.995</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>208.443</v>
+      </c>
+      <c r="GX7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5534,7 +5626,19 @@
       <c r="GS8" t="n">
         <v>243.919</v>
       </c>
-      <c r="GT8" t="inlineStr"/>
+      <c r="GT8" t="n">
+        <v>219.103</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>227.995</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>208.443</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>206.224</v>
+      </c>
+      <c r="GX8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6150,7 +6254,19 @@
       <c r="GS9" t="n">
         <v>34.439</v>
       </c>
-      <c r="GT9" t="inlineStr"/>
+      <c r="GT9" t="n">
+        <v>24.816</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>-8.891999999999999</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>19.552</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="GX9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6766,7 +6882,19 @@
       <c r="GS10" t="n">
         <v>220.823</v>
       </c>
-      <c r="GT10" t="inlineStr"/>
+      <c r="GT10" t="n">
+        <v>209.236</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>213.166</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>209.924</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>204.532</v>
+      </c>
+      <c r="GX10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7166,7 +7294,19 @@
       <c r="GS11" t="n">
         <v>217.259</v>
       </c>
-      <c r="GT11" t="inlineStr"/>
+      <c r="GT11" t="n">
+        <v>205.98</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>211.142</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>208.48</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>203.017</v>
+      </c>
+      <c r="GX11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7782,7 +7922,19 @@
       <c r="GS12" t="n">
         <v>0</v>
       </c>
-      <c r="GT12" t="inlineStr"/>
+      <c r="GT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8398,7 +8550,19 @@
       <c r="GS13" t="n">
         <v>145.615</v>
       </c>
-      <c r="GT13" t="inlineStr"/>
+      <c r="GT13" t="n">
+        <v>142.381</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>146.162</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>143.09</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>143.034</v>
+      </c>
+      <c r="GX13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -9014,7 +9178,19 @@
       <c r="GS14" t="n">
         <v>70.64400000000001</v>
       </c>
-      <c r="GT14" t="inlineStr"/>
+      <c r="GT14" t="n">
+        <v>62.599</v>
+      </c>
+      <c r="GU14" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>64.389</v>
+      </c>
+      <c r="GW14" t="n">
+        <v>58.984</v>
+      </c>
+      <c r="GX14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -9414,7 +9590,19 @@
       <c r="GS15" t="n">
         <v>70.64400000000001</v>
       </c>
-      <c r="GT15" t="inlineStr"/>
+      <c r="GT15" t="n">
+        <v>62.599</v>
+      </c>
+      <c r="GU15" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>63.389</v>
+      </c>
+      <c r="GW15" t="n">
+        <v>56.984</v>
+      </c>
+      <c r="GX15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -10030,7 +10218,19 @@
       <c r="GS16" t="n">
         <v>1</v>
       </c>
-      <c r="GT16" t="inlineStr"/>
+      <c r="GT16" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -10430,7 +10630,19 @@
       <c r="GS17" t="n">
         <v>3.565</v>
       </c>
-      <c r="GT17" t="inlineStr"/>
+      <c r="GT17" t="n">
+        <v>3.256</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="GX17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -11046,7 +11258,19 @@
       <c r="GS18" t="n">
         <v>0</v>
       </c>
-      <c r="GT18" t="inlineStr"/>
+      <c r="GT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -11662,7 +11886,19 @@
       <c r="GS19" t="n">
         <v>1.363</v>
       </c>
-      <c r="GT19" t="inlineStr"/>
+      <c r="GT19" t="n">
+        <v>2.273</v>
+      </c>
+      <c r="GU19" t="n">
+        <v>6.279</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="GW19" t="n">
+        <v>6.027</v>
+      </c>
+      <c r="GX19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -12278,7 +12514,19 @@
       <c r="GS20" t="n">
         <v>0</v>
       </c>
-      <c r="GT20" t="inlineStr"/>
+      <c r="GT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -12894,7 +13142,19 @@
       <c r="GS21" t="n">
         <v>0</v>
       </c>
-      <c r="GT21" t="inlineStr"/>
+      <c r="GT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -13510,7 +13770,19 @@
       <c r="GS22" t="n">
         <v>0</v>
       </c>
-      <c r="GT22" t="inlineStr"/>
+      <c r="GT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -14126,7 +14398,19 @@
       <c r="GS23" t="n">
         <v>0</v>
       </c>
-      <c r="GT23" t="inlineStr"/>
+      <c r="GT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -14742,7 +15026,19 @@
       <c r="GS24" t="n">
         <v>1.363</v>
       </c>
-      <c r="GT24" t="inlineStr"/>
+      <c r="GT24" t="n">
+        <v>2.273</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>6.279</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>6.027</v>
+      </c>
+      <c r="GX24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -15358,7 +15654,19 @@
       <c r="GS25" t="n">
         <v>0</v>
       </c>
-      <c r="GT25" t="inlineStr"/>
+      <c r="GT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -15974,7 +16282,19 @@
       <c r="GS26" t="n">
         <v>108.055</v>
       </c>
-      <c r="GT26" t="inlineStr"/>
+      <c r="GT26" t="n">
+        <v>103.37</v>
+      </c>
+      <c r="GU26" t="n">
+        <v>110.259</v>
+      </c>
+      <c r="GV26" t="n">
+        <v>107.032</v>
+      </c>
+      <c r="GW26" t="n">
+        <v>106.633</v>
+      </c>
+      <c r="GX26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -16590,7 +16910,19 @@
       <c r="GS27" t="n">
         <v>128.981</v>
       </c>
-      <c r="GT27" t="inlineStr"/>
+      <c r="GT27" t="n">
+        <v>111.267</v>
+      </c>
+      <c r="GU27" t="n">
+        <v>105.068</v>
+      </c>
+      <c r="GV27" t="n">
+        <v>94.117</v>
+      </c>
+      <c r="GW27" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="GX27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -16990,7 +17322,19 @@
       <c r="GS28" t="n">
         <v>0</v>
       </c>
-      <c r="GT28" t="inlineStr"/>
+      <c r="GT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -17606,7 +17950,19 @@
       <c r="GS29" t="n">
         <v>0</v>
       </c>
-      <c r="GT29" t="inlineStr"/>
+      <c r="GT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -18222,7 +18578,19 @@
       <c r="GS30" t="n">
         <v>55.634</v>
       </c>
-      <c r="GT30" t="inlineStr"/>
+      <c r="GT30" t="n">
+        <v>76.38500000000001</v>
+      </c>
+      <c r="GU30" t="n">
+        <v>83.438</v>
+      </c>
+      <c r="GV30" t="n">
+        <v>68.425</v>
+      </c>
+      <c r="GW30" t="n">
+        <v>58.046</v>
+      </c>
+      <c r="GX30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -18838,7 +19206,19 @@
       <c r="GS31" t="n">
         <v>76.38500000000001</v>
       </c>
-      <c r="GT31" t="inlineStr"/>
+      <c r="GT31" t="n">
+        <v>83.438</v>
+      </c>
+      <c r="GU31" t="n">
+        <v>68.425</v>
+      </c>
+      <c r="GV31" t="n">
+        <v>58.046</v>
+      </c>
+      <c r="GW31" t="n">
+        <v>63.897</v>
+      </c>
+      <c r="GX31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -19454,7 +19834,19 @@
       <c r="GS32" t="n">
         <v>-20.751</v>
       </c>
-      <c r="GT32" t="inlineStr"/>
+      <c r="GT32" t="n">
+        <v>-7.053</v>
+      </c>
+      <c r="GU32" t="n">
+        <v>15.013</v>
+      </c>
+      <c r="GV32" t="n">
+        <v>10.379</v>
+      </c>
+      <c r="GW32" t="n">
+        <v>-5.851</v>
+      </c>
+      <c r="GX32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -20070,7 +20462,19 @@
       <c r="GS33" t="n">
         <v>216.285</v>
       </c>
-      <c r="GT33" t="inlineStr"/>
+      <c r="GT33" t="n">
+        <v>207.584</v>
+      </c>
+      <c r="GU33" t="n">
+        <v>230.339</v>
+      </c>
+      <c r="GV33" t="n">
+        <v>211.527</v>
+      </c>
+      <c r="GW33" t="n">
+        <v>154.801</v>
+      </c>
+      <c r="GX33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -20686,7 +21090,19 @@
       <c r="GS34" t="n">
         <v>198.686</v>
       </c>
-      <c r="GT34" t="inlineStr"/>
+      <c r="GT34" t="n">
+        <v>187.761</v>
+      </c>
+      <c r="GU34" t="n">
+        <v>207.307</v>
+      </c>
+      <c r="GV34" t="n">
+        <v>196.095</v>
+      </c>
+      <c r="GW34" t="n">
+        <v>149.918</v>
+      </c>
+      <c r="GX34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -21302,7 +21718,19 @@
       <c r="GS35" t="n">
         <v>0</v>
       </c>
-      <c r="GT35" t="inlineStr"/>
+      <c r="GT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -21918,7 +22346,19 @@
       <c r="GS36" t="n">
         <v>0</v>
       </c>
-      <c r="GT36" t="inlineStr"/>
+      <c r="GT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -22534,7 +22974,19 @@
       <c r="GS37" t="n">
         <v>0</v>
       </c>
-      <c r="GT37" t="inlineStr"/>
+      <c r="GT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -22977,6 +23429,10 @@
       <c r="GR38" t="inlineStr"/>
       <c r="GS38" t="inlineStr"/>
       <c r="GT38" t="inlineStr"/>
+      <c r="GU38" t="inlineStr"/>
+      <c r="GV38" t="inlineStr"/>
+      <c r="GW38" t="inlineStr"/>
+      <c r="GX38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -23419,6 +23875,10 @@
       <c r="GR39" t="inlineStr"/>
       <c r="GS39" t="inlineStr"/>
       <c r="GT39" t="inlineStr"/>
+      <c r="GU39" t="inlineStr"/>
+      <c r="GV39" t="inlineStr"/>
+      <c r="GW39" t="inlineStr"/>
+      <c r="GX39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -24034,7 +24494,19 @@
       <c r="GS40" t="n">
         <v>0</v>
       </c>
-      <c r="GT40" t="inlineStr"/>
+      <c r="GT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -24650,7 +25122,19 @@
       <c r="GS41" t="n">
         <v>0</v>
       </c>
-      <c r="GT41" t="inlineStr"/>
+      <c r="GT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -25266,7 +25750,19 @@
       <c r="GS42" t="n">
         <v>0</v>
       </c>
-      <c r="GT42" t="inlineStr"/>
+      <c r="GT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -25666,7 +26162,19 @@
       <c r="GS43" t="n">
         <v>0</v>
       </c>
-      <c r="GT43" t="inlineStr"/>
+      <c r="GT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -26066,7 +26574,19 @@
       <c r="GS44" t="n">
         <v>0</v>
       </c>
-      <c r="GT44" t="inlineStr"/>
+      <c r="GT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -26466,7 +26986,19 @@
       <c r="GS45" t="n">
         <v>0</v>
       </c>
-      <c r="GT45" t="inlineStr"/>
+      <c r="GT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -26866,7 +27398,19 @@
       <c r="GS46" t="n">
         <v>0</v>
       </c>
-      <c r="GT46" t="inlineStr"/>
+      <c r="GT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -27266,7 +27810,19 @@
       <c r="GS47" t="n">
         <v>0</v>
       </c>
-      <c r="GT47" t="inlineStr"/>
+      <c r="GT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -27666,7 +28222,19 @@
       <c r="GS48" t="n">
         <v>0</v>
       </c>
-      <c r="GT48" t="inlineStr"/>
+      <c r="GT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -28066,7 +28634,19 @@
       <c r="GS49" t="n">
         <v>0</v>
       </c>
-      <c r="GT49" t="inlineStr"/>
+      <c r="GT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -28466,7 +29046,19 @@
       <c r="GS50" t="n">
         <v>0</v>
       </c>
-      <c r="GT50" t="inlineStr"/>
+      <c r="GT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
+++ b/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GX50"/>
+  <dimension ref="A1:GZ50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1459,6 +1459,16 @@
           <t>2024-08</t>
         </is>
       </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2086,7 +2096,13 @@
       <c r="GW2" t="n">
         <v>0</v>
       </c>
-      <c r="GX2" t="inlineStr"/>
+      <c r="GX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2714,7 +2730,13 @@
       <c r="GW3" t="n">
         <v>0</v>
       </c>
-      <c r="GX3" t="inlineStr"/>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3342,7 +3364,13 @@
       <c r="GW4" t="n">
         <v>202.314</v>
       </c>
-      <c r="GX4" t="inlineStr"/>
+      <c r="GX4" t="n">
+        <v>201.503</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>148.218</v>
+      </c>
+      <c r="GZ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3754,7 +3782,13 @@
       <c r="GW5" t="n">
         <v>77.096</v>
       </c>
-      <c r="GX5" t="inlineStr"/>
+      <c r="GX5" t="n">
+        <v>94.221</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>88.17700000000001</v>
+      </c>
+      <c r="GZ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4382,7 +4416,13 @@
       <c r="GW6" t="n">
         <v>0</v>
       </c>
-      <c r="GX6" t="inlineStr"/>
+      <c r="GX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -5010,7 +5050,13 @@
       <c r="GW7" t="n">
         <v>208.443</v>
       </c>
-      <c r="GX7" t="inlineStr"/>
+      <c r="GX7" t="n">
+        <v>206.224</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>216.033</v>
+      </c>
+      <c r="GZ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5638,7 +5684,13 @@
       <c r="GW8" t="n">
         <v>206.224</v>
       </c>
-      <c r="GX8" t="inlineStr"/>
+      <c r="GX8" t="n">
+        <v>216.033</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>178.356</v>
+      </c>
+      <c r="GZ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6266,7 +6318,13 @@
       <c r="GW9" t="n">
         <v>2.219</v>
       </c>
-      <c r="GX9" t="inlineStr"/>
+      <c r="GX9" t="n">
+        <v>-9.808999999999999</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>37.677</v>
+      </c>
+      <c r="GZ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6894,7 +6952,13 @@
       <c r="GW10" t="n">
         <v>204.532</v>
       </c>
-      <c r="GX10" t="inlineStr"/>
+      <c r="GX10" t="n">
+        <v>191.694</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>185.896</v>
+      </c>
+      <c r="GZ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7306,7 +7370,13 @@
       <c r="GW11" t="n">
         <v>203.017</v>
       </c>
-      <c r="GX11" t="inlineStr"/>
+      <c r="GX11" t="n">
+        <v>192.838</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>187.374</v>
+      </c>
+      <c r="GZ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7934,7 +8004,13 @@
       <c r="GW12" t="n">
         <v>0</v>
       </c>
-      <c r="GX12" t="inlineStr"/>
+      <c r="GX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8562,7 +8638,13 @@
       <c r="GW13" t="n">
         <v>143.034</v>
       </c>
-      <c r="GX13" t="inlineStr"/>
+      <c r="GX13" t="n">
+        <v>147.197</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>143.359</v>
+      </c>
+      <c r="GZ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -9190,7 +9272,13 @@
       <c r="GW14" t="n">
         <v>58.984</v>
       </c>
-      <c r="GX14" t="inlineStr"/>
+      <c r="GX14" t="n">
+        <v>44.642</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>43.015</v>
+      </c>
+      <c r="GZ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -9602,7 +9690,13 @@
       <c r="GW15" t="n">
         <v>56.984</v>
       </c>
-      <c r="GX15" t="inlineStr"/>
+      <c r="GX15" t="n">
+        <v>42.642</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>38.015</v>
+      </c>
+      <c r="GZ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -10230,7 +10324,13 @@
       <c r="GW16" t="n">
         <v>1</v>
       </c>
-      <c r="GX16" t="inlineStr"/>
+      <c r="GX16" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -10642,7 +10742,13 @@
       <c r="GW17" t="n">
         <v>1.515</v>
       </c>
-      <c r="GX17" t="inlineStr"/>
+      <c r="GX17" t="n">
+        <v>-1.144</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>-1.479</v>
+      </c>
+      <c r="GZ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -11270,7 +11376,13 @@
       <c r="GW18" t="n">
         <v>0</v>
       </c>
-      <c r="GX18" t="inlineStr"/>
+      <c r="GX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -11898,7 +12010,13 @@
       <c r="GW19" t="n">
         <v>6.027</v>
       </c>
-      <c r="GX19" t="inlineStr"/>
+      <c r="GX19" t="n">
+        <v>3.735</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>5.227</v>
+      </c>
+      <c r="GZ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -12526,7 +12644,13 @@
       <c r="GW20" t="n">
         <v>0</v>
       </c>
-      <c r="GX20" t="inlineStr"/>
+      <c r="GX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -13154,7 +13278,13 @@
       <c r="GW21" t="n">
         <v>0</v>
       </c>
-      <c r="GX21" t="inlineStr"/>
+      <c r="GX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -13782,7 +13912,13 @@
       <c r="GW22" t="n">
         <v>0</v>
       </c>
-      <c r="GX22" t="inlineStr"/>
+      <c r="GX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -14410,7 +14546,13 @@
       <c r="GW23" t="n">
         <v>0</v>
       </c>
-      <c r="GX23" t="inlineStr"/>
+      <c r="GX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -15038,7 +15180,13 @@
       <c r="GW24" t="n">
         <v>6.027</v>
       </c>
-      <c r="GX24" t="inlineStr"/>
+      <c r="GX24" t="n">
+        <v>3.735</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>5.227</v>
+      </c>
+      <c r="GZ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -15666,7 +15814,13 @@
       <c r="GW25" t="n">
         <v>0</v>
       </c>
-      <c r="GX25" t="inlineStr"/>
+      <c r="GX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -16294,7 +16448,13 @@
       <c r="GW26" t="n">
         <v>106.633</v>
       </c>
-      <c r="GX26" t="inlineStr"/>
+      <c r="GX26" t="n">
+        <v>109.431</v>
+      </c>
+      <c r="GY26" t="n">
+        <v>104.138</v>
+      </c>
+      <c r="GZ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -16922,7 +17082,13 @@
       <c r="GW27" t="n">
         <v>54.02</v>
       </c>
-      <c r="GX27" t="inlineStr"/>
+      <c r="GX27" t="n">
+        <v>86.077</v>
+      </c>
+      <c r="GY27" t="n">
+        <v>28.113</v>
+      </c>
+      <c r="GZ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -17334,7 +17500,13 @@
       <c r="GW28" t="n">
         <v>0</v>
       </c>
-      <c r="GX28" t="inlineStr"/>
+      <c r="GX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -17962,7 +18134,13 @@
       <c r="GW29" t="n">
         <v>0</v>
       </c>
-      <c r="GX29" t="inlineStr"/>
+      <c r="GX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -18590,7 +18768,13 @@
       <c r="GW30" t="n">
         <v>58.046</v>
       </c>
-      <c r="GX30" t="inlineStr"/>
+      <c r="GX30" t="n">
+        <v>63.897</v>
+      </c>
+      <c r="GY30" t="n">
+        <v>88.014</v>
+      </c>
+      <c r="GZ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -19218,7 +19402,13 @@
       <c r="GW31" t="n">
         <v>63.897</v>
       </c>
-      <c r="GX31" t="inlineStr"/>
+      <c r="GX31" t="n">
+        <v>88.014</v>
+      </c>
+      <c r="GY31" t="n">
+        <v>78.086</v>
+      </c>
+      <c r="GZ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -19846,7 +20036,13 @@
       <c r="GW32" t="n">
         <v>-5.851</v>
       </c>
-      <c r="GX32" t="inlineStr"/>
+      <c r="GX32" t="n">
+        <v>-24.117</v>
+      </c>
+      <c r="GY32" t="n">
+        <v>9.929</v>
+      </c>
+      <c r="GZ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -20474,7 +20670,13 @@
       <c r="GW33" t="n">
         <v>154.801</v>
       </c>
-      <c r="GX33" t="inlineStr"/>
+      <c r="GX33" t="n">
+        <v>171.391</v>
+      </c>
+      <c r="GY33" t="n">
+        <v>142.179</v>
+      </c>
+      <c r="GZ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -21102,7 +21304,13 @@
       <c r="GW34" t="n">
         <v>149.918</v>
       </c>
-      <c r="GX34" t="inlineStr"/>
+      <c r="GX34" t="n">
+        <v>167.182</v>
+      </c>
+      <c r="GY34" t="n">
+        <v>136.719</v>
+      </c>
+      <c r="GZ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -21730,7 +21938,13 @@
       <c r="GW35" t="n">
         <v>0</v>
       </c>
-      <c r="GX35" t="inlineStr"/>
+      <c r="GX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -22358,7 +22572,13 @@
       <c r="GW36" t="n">
         <v>0</v>
       </c>
-      <c r="GX36" t="inlineStr"/>
+      <c r="GX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -22986,7 +23206,13 @@
       <c r="GW37" t="n">
         <v>0</v>
       </c>
-      <c r="GX37" t="inlineStr"/>
+      <c r="GX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -23433,6 +23659,8 @@
       <c r="GV38" t="inlineStr"/>
       <c r="GW38" t="inlineStr"/>
       <c r="GX38" t="inlineStr"/>
+      <c r="GY38" t="inlineStr"/>
+      <c r="GZ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -23879,6 +24107,8 @@
       <c r="GV39" t="inlineStr"/>
       <c r="GW39" t="inlineStr"/>
       <c r="GX39" t="inlineStr"/>
+      <c r="GY39" t="inlineStr"/>
+      <c r="GZ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -24506,7 +24736,13 @@
       <c r="GW40" t="n">
         <v>0</v>
       </c>
-      <c r="GX40" t="inlineStr"/>
+      <c r="GX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -25134,7 +25370,13 @@
       <c r="GW41" t="n">
         <v>0</v>
       </c>
-      <c r="GX41" t="inlineStr"/>
+      <c r="GX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -25762,7 +26004,13 @@
       <c r="GW42" t="n">
         <v>0</v>
       </c>
-      <c r="GX42" t="inlineStr"/>
+      <c r="GX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -26174,7 +26422,13 @@
       <c r="GW43" t="n">
         <v>0</v>
       </c>
-      <c r="GX43" t="inlineStr"/>
+      <c r="GX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -26586,7 +26840,13 @@
       <c r="GW44" t="n">
         <v>0</v>
       </c>
-      <c r="GX44" t="inlineStr"/>
+      <c r="GX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -26998,7 +27258,13 @@
       <c r="GW45" t="n">
         <v>0</v>
       </c>
-      <c r="GX45" t="inlineStr"/>
+      <c r="GX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -27410,7 +27676,13 @@
       <c r="GW46" t="n">
         <v>0</v>
       </c>
-      <c r="GX46" t="inlineStr"/>
+      <c r="GX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -27822,7 +28094,13 @@
       <c r="GW47" t="n">
         <v>0</v>
       </c>
-      <c r="GX47" t="inlineStr"/>
+      <c r="GX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -28234,7 +28512,13 @@
       <c r="GW48" t="n">
         <v>0</v>
       </c>
-      <c r="GX48" t="inlineStr"/>
+      <c r="GX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -28646,7 +28930,13 @@
       <c r="GW49" t="n">
         <v>0</v>
       </c>
-      <c r="GX49" t="inlineStr"/>
+      <c r="GX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -29058,7 +29348,13 @@
       <c r="GW50" t="n">
         <v>0</v>
       </c>
-      <c r="GX50" t="inlineStr"/>
+      <c r="GX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
+++ b/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ50"/>
+  <dimension ref="A1:HA50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1469,6 +1469,11 @@
           <t>2024-10</t>
         </is>
       </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2103,6 +2108,7 @@
         <v>0</v>
       </c>
       <c r="GZ2" t="inlineStr"/>
+      <c r="HA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2737,6 +2743,7 @@
         <v>0</v>
       </c>
       <c r="GZ3" t="inlineStr"/>
+      <c r="HA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3371,6 +3378,7 @@
         <v>148.218</v>
       </c>
       <c r="GZ4" t="inlineStr"/>
+      <c r="HA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3789,6 +3797,7 @@
         <v>88.17700000000001</v>
       </c>
       <c r="GZ5" t="inlineStr"/>
+      <c r="HA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4423,6 +4432,7 @@
         <v>0</v>
       </c>
       <c r="GZ6" t="inlineStr"/>
+      <c r="HA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -5057,6 +5067,7 @@
         <v>216.033</v>
       </c>
       <c r="GZ7" t="inlineStr"/>
+      <c r="HA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5691,6 +5702,7 @@
         <v>178.356</v>
       </c>
       <c r="GZ8" t="inlineStr"/>
+      <c r="HA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6325,6 +6337,7 @@
         <v>37.677</v>
       </c>
       <c r="GZ9" t="inlineStr"/>
+      <c r="HA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6959,6 +6972,7 @@
         <v>185.896</v>
       </c>
       <c r="GZ10" t="inlineStr"/>
+      <c r="HA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7377,6 +7391,7 @@
         <v>187.374</v>
       </c>
       <c r="GZ11" t="inlineStr"/>
+      <c r="HA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -8011,6 +8026,7 @@
         <v>0</v>
       </c>
       <c r="GZ12" t="inlineStr"/>
+      <c r="HA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8645,6 +8661,7 @@
         <v>143.359</v>
       </c>
       <c r="GZ13" t="inlineStr"/>
+      <c r="HA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -9279,6 +9296,7 @@
         <v>43.015</v>
       </c>
       <c r="GZ14" t="inlineStr"/>
+      <c r="HA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -9697,6 +9715,7 @@
         <v>38.015</v>
       </c>
       <c r="GZ15" t="inlineStr"/>
+      <c r="HA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -10331,6 +10350,7 @@
         <v>1</v>
       </c>
       <c r="GZ16" t="inlineStr"/>
+      <c r="HA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -10749,6 +10769,7 @@
         <v>-1.479</v>
       </c>
       <c r="GZ17" t="inlineStr"/>
+      <c r="HA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -11383,6 +11404,7 @@
         <v>0</v>
       </c>
       <c r="GZ18" t="inlineStr"/>
+      <c r="HA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -12017,6 +12039,7 @@
         <v>5.227</v>
       </c>
       <c r="GZ19" t="inlineStr"/>
+      <c r="HA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -12651,6 +12674,7 @@
         <v>0</v>
       </c>
       <c r="GZ20" t="inlineStr"/>
+      <c r="HA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -13285,6 +13309,7 @@
         <v>0</v>
       </c>
       <c r="GZ21" t="inlineStr"/>
+      <c r="HA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -13919,6 +13944,7 @@
         <v>0</v>
       </c>
       <c r="GZ22" t="inlineStr"/>
+      <c r="HA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -14553,6 +14579,7 @@
         <v>0</v>
       </c>
       <c r="GZ23" t="inlineStr"/>
+      <c r="HA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -15187,6 +15214,7 @@
         <v>5.227</v>
       </c>
       <c r="GZ24" t="inlineStr"/>
+      <c r="HA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -15821,6 +15849,7 @@
         <v>0</v>
       </c>
       <c r="GZ25" t="inlineStr"/>
+      <c r="HA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -16455,6 +16484,7 @@
         <v>104.138</v>
       </c>
       <c r="GZ26" t="inlineStr"/>
+      <c r="HA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -17089,6 +17119,7 @@
         <v>28.113</v>
       </c>
       <c r="GZ27" t="inlineStr"/>
+      <c r="HA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -17507,6 +17538,7 @@
         <v>0</v>
       </c>
       <c r="GZ28" t="inlineStr"/>
+      <c r="HA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -18141,6 +18173,7 @@
         <v>0</v>
       </c>
       <c r="GZ29" t="inlineStr"/>
+      <c r="HA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -18775,6 +18808,7 @@
         <v>88.014</v>
       </c>
       <c r="GZ30" t="inlineStr"/>
+      <c r="HA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -19409,6 +19443,7 @@
         <v>78.086</v>
       </c>
       <c r="GZ31" t="inlineStr"/>
+      <c r="HA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -20043,6 +20078,7 @@
         <v>9.929</v>
       </c>
       <c r="GZ32" t="inlineStr"/>
+      <c r="HA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -20677,6 +20713,7 @@
         <v>142.179</v>
       </c>
       <c r="GZ33" t="inlineStr"/>
+      <c r="HA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -21311,6 +21348,7 @@
         <v>136.719</v>
       </c>
       <c r="GZ34" t="inlineStr"/>
+      <c r="HA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -21945,6 +21983,7 @@
         <v>0</v>
       </c>
       <c r="GZ35" t="inlineStr"/>
+      <c r="HA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -22579,6 +22618,7 @@
         <v>0</v>
       </c>
       <c r="GZ36" t="inlineStr"/>
+      <c r="HA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -23213,6 +23253,7 @@
         <v>0</v>
       </c>
       <c r="GZ37" t="inlineStr"/>
+      <c r="HA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -23661,6 +23702,7 @@
       <c r="GX38" t="inlineStr"/>
       <c r="GY38" t="inlineStr"/>
       <c r="GZ38" t="inlineStr"/>
+      <c r="HA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -24109,6 +24151,7 @@
       <c r="GX39" t="inlineStr"/>
       <c r="GY39" t="inlineStr"/>
       <c r="GZ39" t="inlineStr"/>
+      <c r="HA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -24743,6 +24786,7 @@
         <v>0</v>
       </c>
       <c r="GZ40" t="inlineStr"/>
+      <c r="HA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -25377,6 +25421,7 @@
         <v>0</v>
       </c>
       <c r="GZ41" t="inlineStr"/>
+      <c r="HA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -26011,6 +26056,7 @@
         <v>0</v>
       </c>
       <c r="GZ42" t="inlineStr"/>
+      <c r="HA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -26429,6 +26475,7 @@
         <v>0</v>
       </c>
       <c r="GZ43" t="inlineStr"/>
+      <c r="HA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -26847,6 +26894,7 @@
         <v>0</v>
       </c>
       <c r="GZ44" t="inlineStr"/>
+      <c r="HA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -27265,6 +27313,7 @@
         <v>0</v>
       </c>
       <c r="GZ45" t="inlineStr"/>
+      <c r="HA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -27683,6 +27732,7 @@
         <v>0</v>
       </c>
       <c r="GZ46" t="inlineStr"/>
+      <c r="HA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -28101,6 +28151,7 @@
         <v>0</v>
       </c>
       <c r="GZ47" t="inlineStr"/>
+      <c r="HA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -28519,6 +28570,7 @@
         <v>0</v>
       </c>
       <c r="GZ48" t="inlineStr"/>
+      <c r="HA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -28937,6 +28989,7 @@
         <v>0</v>
       </c>
       <c r="GZ49" t="inlineStr"/>
+      <c r="HA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -29355,6 +29408,7 @@
         <v>0</v>
       </c>
       <c r="GZ50" t="inlineStr"/>
+      <c r="HA50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
